--- a/Output/28_02_2023/ADM_UL223314.xlsx
+++ b/Output/28_02_2023/ADM_UL223314.xlsx
@@ -31,13 +31,13 @@
     <x:t>UL223314</x:t>
   </x:si>
   <x:si>
-    <x:t>Administrativo</x:t>
+    <x:t>Administrativa</x:t>
   </x:si>
   <x:si>
     <x:t>ADM</x:t>
   </x:si>
   <x:si>
-    <x:t>instalación de un nuevo sistema contable</x:t>
+    <x:t>instalar un nuevo sistema de contabilidad</x:t>
   </x:si>
 </x:sst>
 </file>
